--- a/AfDD_2024_Annex_Table_Tab16.xlsx
+++ b/AfDD_2024_Annex_Table_Tab16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B936F6-BFE4-45E0-AE72-E76613C3A3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EF8A4D-B343-4D6E-ACCB-919CB8C43BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CEA4CD9D-A0E9-463F-9A8F-69FE1F54C836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34F8D99C-B022-4D89-BABD-D328431EA77B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -1582,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CBE976-7C6A-4DB2-8DDA-7E21BAE6B76B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299965D1-F95D-41E1-B838-D13EA80B44AB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5533,12 +5533,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B025EF9E-7BDC-4CE7-A808-E386CB9AAF17}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A5DC23F5-0C60-4ED8-BC27-0AA534CC65CD}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{1F420573-DD14-49BB-8B8F-592F116A66CF}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{D563D741-D841-4183-86D6-A777FAD405F4}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{0316F20E-EFC6-4BDE-91F5-90E13861667D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{455A21F2-4ECC-4FCD-9F16-DDDBA7956071}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CDBB2729-8563-4093-85C5-20C149A0DBA9}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8821729C-A9A8-48F4-B222-1BF3D9FA48B9}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DC6E7A24-858B-40A9-88E9-1BE066D51235}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{E480DAD4-736E-4832-918E-CFD6F2A465C4}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{C56C34C7-67D2-4D0A-ADD2-6A21D12969C2}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{55B5BE36-78AE-4CDA-8128-7EC64B8FF253}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab16.xlsx
+++ b/AfDD_2024_Annex_Table_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EF8A4D-B343-4D6E-ACCB-919CB8C43BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93822F5-1C10-4872-8E15-F69E7BD625D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34F8D99C-B022-4D89-BABD-D328431EA77B}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2392452F-5F69-4B2C-8427-3B9C1BF46DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -1264,9 +1264,9 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1582,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299965D1-F95D-41E1-B838-D13EA80B44AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB24F475-2985-4366-9E6D-8BBFD432DEF7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1594,7 +1594,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="12.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="12.42578125" style="119" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5470,7 +5470,7 @@
       <c r="L110" s="115"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="119" t="s">
+      <c r="B111" s="117" t="s">
         <v>174</v>
       </c>
       <c r="C111" s="115"/>
@@ -5485,7 +5485,7 @@
       <c r="L111" s="115"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="117" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="115"/>
@@ -5526,19 +5526,19 @@
       <c r="L114" s="115"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="117"/>
+      <c r="B115" s="118"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="117"/>
+      <c r="B116" s="118"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{CDBB2729-8563-4093-85C5-20C149A0DBA9}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8821729C-A9A8-48F4-B222-1BF3D9FA48B9}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{DC6E7A24-858B-40A9-88E9-1BE066D51235}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{E480DAD4-736E-4832-918E-CFD6F2A465C4}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{C56C34C7-67D2-4D0A-ADD2-6A21D12969C2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{55B5BE36-78AE-4CDA-8128-7EC64B8FF253}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D7554629-9F76-4909-A812-9725A9C9D672}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8D4A70B1-601C-45D4-852B-2AB5B79A6DB6}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{41AC58E6-4B1A-4C87-8DEC-D5A22B93EA62}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{D93DF560-2B33-4A84-AAE5-9883ABFB374C}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8610AA41-F945-4EC2-932F-CB18B24730A2}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{D23910B9-01AB-4762-AEAB-0BE1593B1FF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab16.xlsx
+++ b/AfDD_2024_Annex_Table_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93822F5-1C10-4872-8E15-F69E7BD625D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC414A61-7798-43AA-AA94-662722EE26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2392452F-5F69-4B2C-8427-3B9C1BF46DCC}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{437C4E43-E7DD-4BE4-8AF4-48E3A3689683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -1582,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB24F475-2985-4366-9E6D-8BBFD432DEF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3E08A0-BA05-4252-93CF-9EAA8DE5810A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5533,12 +5533,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D7554629-9F76-4909-A812-9725A9C9D672}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8D4A70B1-601C-45D4-852B-2AB5B79A6DB6}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{41AC58E6-4B1A-4C87-8DEC-D5A22B93EA62}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{D93DF560-2B33-4A84-AAE5-9883ABFB374C}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{8610AA41-F945-4EC2-932F-CB18B24730A2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{D23910B9-01AB-4762-AEAB-0BE1593B1FF4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{92DAED8E-809B-411E-835C-43B1E31B3402}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C4843365-A438-4345-B62A-5D67247B64E6}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{349C9B68-FF61-435B-837B-147B8181A595}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{38240A91-DCD1-4347-AA93-F776CD203CF2}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{1D51D145-48E8-4D69-A960-CD4FF8230CF8}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{87961EB1-1EE8-4488-BD70-F9BC48DF882C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId7"/>
